--- a/Code/Results/Cases/Case_4_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9240299514896151</v>
+        <v>0.438308214048817</v>
       </c>
       <c r="C2">
-        <v>0.1228143972399067</v>
+        <v>0.1505248139167676</v>
       </c>
       <c r="D2">
-        <v>0.1964636137194873</v>
+        <v>0.07841453281689326</v>
       </c>
       <c r="E2">
-        <v>0.05239237092382787</v>
+        <v>0.1207490994456908</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3850641131328629</v>
+        <v>0.6927346021066185</v>
       </c>
       <c r="H2">
-        <v>0.3299208640998614</v>
+        <v>0.8032467169382826</v>
       </c>
       <c r="I2">
-        <v>0.3547047467412838</v>
+        <v>0.811369122375126</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8414588439388808</v>
+        <v>0.2709177116533112</v>
       </c>
       <c r="L2">
-        <v>0.1601691579915467</v>
+        <v>0.2075162429270208</v>
       </c>
       <c r="M2">
-        <v>0.2033616850908722</v>
+        <v>0.1405601570458899</v>
       </c>
       <c r="N2">
-        <v>0.844330997869513</v>
+        <v>1.767946521300936</v>
       </c>
       <c r="O2">
-        <v>1.454838412297534</v>
+        <v>2.990425728613104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8035283535005533</v>
+        <v>0.4038125033059146</v>
       </c>
       <c r="C3">
-        <v>0.1179330094702422</v>
+        <v>0.1488187562709413</v>
       </c>
       <c r="D3">
-        <v>0.1706320935697789</v>
+        <v>0.07115475379671921</v>
       </c>
       <c r="E3">
-        <v>0.0516463112738883</v>
+        <v>0.1212139514284001</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3731660875220086</v>
+        <v>0.6947108710974348</v>
       </c>
       <c r="H3">
-        <v>0.3296589989601415</v>
+        <v>0.8076561067087553</v>
       </c>
       <c r="I3">
-        <v>0.3562535564075944</v>
+        <v>0.8168558862899751</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7338411272346406</v>
+        <v>0.2381470848014402</v>
       </c>
       <c r="L3">
-        <v>0.145743111687942</v>
+        <v>0.2048028731426328</v>
       </c>
       <c r="M3">
-        <v>0.178011025446164</v>
+        <v>0.1338769148844108</v>
       </c>
       <c r="N3">
-        <v>0.8819294825489332</v>
+        <v>1.784499709032465</v>
       </c>
       <c r="O3">
-        <v>1.42872795795688</v>
+        <v>3.003596482704211</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7296747403148913</v>
+        <v>0.3827343119863826</v>
       </c>
       <c r="C4">
-        <v>0.1149304479589119</v>
+        <v>0.1477602946816319</v>
       </c>
       <c r="D4">
-        <v>0.1548875541915891</v>
+        <v>0.0667294617217209</v>
       </c>
       <c r="E4">
-        <v>0.05125238788287945</v>
+        <v>0.1215435358350483</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3665961912972691</v>
+        <v>0.696308075453274</v>
       </c>
       <c r="H4">
-        <v>0.3299647562711812</v>
+        <v>0.8106612559920237</v>
       </c>
       <c r="I4">
-        <v>0.3577994728480007</v>
+        <v>0.8205736053800408</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6677541156786475</v>
+        <v>0.2180023430719729</v>
       </c>
       <c r="L4">
-        <v>0.1370434504419649</v>
+        <v>0.2032356465113594</v>
       </c>
       <c r="M4">
-        <v>0.1625270153011265</v>
+        <v>0.1298278026805058</v>
       </c>
       <c r="N4">
-        <v>0.9059917794645873</v>
+        <v>1.795186719930117</v>
       </c>
       <c r="O4">
-        <v>1.415222990857544</v>
+        <v>3.013111415723557</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.699604348229343</v>
+        <v>0.3741711324992139</v>
       </c>
       <c r="C5">
-        <v>0.1137052238611744</v>
+        <v>0.1473262338530006</v>
       </c>
       <c r="D5">
-        <v>0.1484973436751886</v>
+        <v>0.06493427166877552</v>
       </c>
       <c r="E5">
-        <v>0.05110757279135925</v>
+        <v>0.1216889712668738</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.364095782726416</v>
+        <v>0.6970554900379966</v>
       </c>
       <c r="H5">
-        <v>0.3302031257662108</v>
+        <v>0.8119608508039136</v>
       </c>
       <c r="I5">
-        <v>0.3585742440559621</v>
+        <v>0.8221763884165973</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.640813744358411</v>
+        <v>0.2097877937296175</v>
       </c>
       <c r="L5">
-        <v>0.1335357826711032</v>
+        <v>0.2026219113693841</v>
       </c>
       <c r="M5">
-        <v>0.156235384376771</v>
+        <v>0.128191573095954</v>
       </c>
       <c r="N5">
-        <v>0.9160380281595311</v>
+        <v>1.799673391597229</v>
       </c>
       <c r="O5">
-        <v>1.410330465492834</v>
+        <v>3.017348198865207</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6946124899529309</v>
+        <v>0.3727508332593175</v>
       </c>
       <c r="C6">
-        <v>0.1135016677738037</v>
+        <v>0.1472539941586675</v>
       </c>
       <c r="D6">
-        <v>0.1474377172059889</v>
+        <v>0.06463667542972473</v>
       </c>
       <c r="E6">
-        <v>0.05108446328674177</v>
+        <v>0.1217137934020176</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3636910449765196</v>
+        <v>0.6971854296518813</v>
       </c>
       <c r="H6">
-        <v>0.3302494775544531</v>
+        <v>0.8121811784979371</v>
       </c>
       <c r="I6">
-        <v>0.3587115028888839</v>
+        <v>0.82244783314896</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6363395512309467</v>
+        <v>0.2084234621760146</v>
       </c>
       <c r="L6">
-        <v>0.1329555400256552</v>
+        <v>0.2025215087223344</v>
       </c>
       <c r="M6">
-        <v>0.1551917014252453</v>
+        <v>0.1279207167487542</v>
       </c>
       <c r="N6">
-        <v>0.9177205957357799</v>
+        <v>1.800426351318489</v>
       </c>
       <c r="O6">
-        <v>1.409554261235925</v>
+        <v>3.018073426804548</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7292691077560391</v>
+        <v>0.3826187184138803</v>
       </c>
       <c r="C7">
-        <v>0.1149139312526373</v>
+        <v>0.1477544518085594</v>
       </c>
       <c r="D7">
-        <v>0.1548012734128292</v>
+        <v>0.06670521809273566</v>
       </c>
       <c r="E7">
-        <v>0.0512503717845334</v>
+        <v>0.1215454521457371</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3665617641707826</v>
+        <v>0.6963177644053147</v>
       </c>
       <c r="H7">
-        <v>0.3299675149235881</v>
+        <v>0.8106784790949959</v>
       </c>
       <c r="I7">
-        <v>0.3578093416071511</v>
+        <v>0.8205948655553748</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6673908354156879</v>
+        <v>0.2178915800143955</v>
       </c>
       <c r="L7">
-        <v>0.1369959957670943</v>
+        <v>0.2032272684480532</v>
       </c>
       <c r="M7">
-        <v>0.1624420932401875</v>
+        <v>0.1298056798001852</v>
       </c>
       <c r="N7">
-        <v>0.9061262985853893</v>
+        <v>1.795246695738516</v>
       </c>
       <c r="O7">
-        <v>1.415154566904974</v>
+        <v>3.013167099014368</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8824478153353255</v>
+        <v>0.4263932226718055</v>
       </c>
       <c r="C8">
-        <v>0.1211322175517324</v>
+        <v>0.1499388467724074</v>
       </c>
       <c r="D8">
-        <v>0.1875307188067694</v>
+        <v>0.07590469414736845</v>
       </c>
       <c r="E8">
-        <v>0.05212155397413909</v>
+        <v>0.120900227310802</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3808040391473995</v>
+        <v>0.6933363911482644</v>
       </c>
       <c r="H8">
-        <v>0.3297315594682573</v>
+        <v>0.8047053306372334</v>
       </c>
       <c r="I8">
-        <v>0.3551123422383284</v>
+        <v>0.8131886005856153</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8043498023271241</v>
+        <v>0.2596235506744335</v>
       </c>
       <c r="L8">
-        <v>0.1551609008435548</v>
+        <v>0.2065602151888157</v>
       </c>
       <c r="M8">
-        <v>0.19460249556343</v>
+        <v>0.1382445553213358</v>
       </c>
       <c r="N8">
-        <v>0.8570892248524089</v>
+        <v>1.77354547978832</v>
       </c>
       <c r="O8">
-        <v>1.445295936235595</v>
+        <v>2.994670779632017</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.184313021914562</v>
+        <v>0.5130235166395209</v>
       </c>
       <c r="C9">
-        <v>0.133299048584405</v>
+        <v>0.154134945856697</v>
       </c>
       <c r="D9">
-        <v>0.2527967314105268</v>
+        <v>0.09419961245656339</v>
       </c>
       <c r="E9">
-        <v>0.05435897150540825</v>
+        <v>0.1199844443340421</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4149523061147704</v>
+        <v>0.6905338826134937</v>
       </c>
       <c r="H9">
-        <v>0.3331386335414095</v>
+        <v>0.795350583027215</v>
       </c>
       <c r="I9">
-        <v>0.3547708744534788</v>
+        <v>0.8014298855971909</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.073200638914585</v>
+        <v>0.3412560477870841</v>
       </c>
       <c r="L9">
-        <v>0.1921420414185278</v>
+        <v>0.2138770244963126</v>
       </c>
       <c r="M9">
-        <v>0.258424059245737</v>
+        <v>0.155220178702713</v>
       </c>
       <c r="N9">
-        <v>0.7689063581613533</v>
+        <v>1.735138936842188</v>
       </c>
       <c r="O9">
-        <v>1.525617682017383</v>
+        <v>2.969719901389425</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.407622679281616</v>
+        <v>0.5771267796200448</v>
       </c>
       <c r="C10">
-        <v>0.1422453034759315</v>
+        <v>0.1571637718378227</v>
       </c>
       <c r="D10">
-        <v>0.3016485984366568</v>
+        <v>0.1077961665070859</v>
       </c>
       <c r="E10">
-        <v>0.05635442569865745</v>
+        <v>0.1195235180994274</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4443933304651324</v>
+        <v>0.6903301142126139</v>
       </c>
       <c r="H10">
-        <v>0.3382468021203806</v>
+        <v>0.7899102941451588</v>
       </c>
       <c r="I10">
-        <v>0.357866572082493</v>
+        <v>0.7944728039372286</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.271423588256454</v>
+        <v>0.4010890423390947</v>
       </c>
       <c r="L10">
-        <v>0.2202983852819074</v>
+        <v>0.2197255611918365</v>
       </c>
       <c r="M10">
-        <v>0.3059383270983105</v>
+        <v>0.1679473521228232</v>
       </c>
       <c r="N10">
-        <v>0.7093119649901189</v>
+        <v>1.709446837545564</v>
       </c>
       <c r="O10">
-        <v>1.599267864270786</v>
+        <v>2.958278227006076</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.509692735258739</v>
+        <v>0.6063831380325837</v>
       </c>
       <c r="C11">
-        <v>0.1463225887413984</v>
+        <v>0.158529792072116</v>
       </c>
       <c r="D11">
-        <v>0.3241245048658357</v>
+        <v>0.1140153681070615</v>
       </c>
       <c r="E11">
-        <v>0.0573453247684057</v>
+        <v>0.1193596005852093</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.458863451057141</v>
+        <v>0.6906402329518357</v>
       </c>
       <c r="H11">
-        <v>0.3411940425326065</v>
+        <v>0.7877453747043717</v>
       </c>
       <c r="I11">
-        <v>0.3600789116320726</v>
+        <v>0.7916723640292176</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.361878430998871</v>
+        <v>0.4282741663051013</v>
       </c>
       <c r="L11">
-        <v>0.2333585129529752</v>
+        <v>0.2224882628893852</v>
       </c>
       <c r="M11">
-        <v>0.3277282366460383</v>
+        <v>0.1737916710347633</v>
       </c>
       <c r="N11">
-        <v>0.6834057218790344</v>
+        <v>1.698306209343198</v>
       </c>
       <c r="O11">
-        <v>1.636351768848129</v>
+        <v>2.954566923280709</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.548426548226985</v>
+        <v>0.6174749285318057</v>
       </c>
       <c r="C12">
-        <v>0.1478681520337304</v>
+        <v>0.1590453527234885</v>
       </c>
       <c r="D12">
-        <v>0.3326767912729451</v>
+        <v>0.1163752861069582</v>
       </c>
       <c r="E12">
-        <v>0.05773309923622705</v>
+        <v>0.1193040886230303</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4645094285422999</v>
+        <v>0.6908155705761772</v>
       </c>
       <c r="H12">
-        <v>0.3424048606384673</v>
+        <v>0.7869700492743164</v>
       </c>
       <c r="I12">
-        <v>0.3610391365715486</v>
+        <v>0.7906642470710779</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.396182765358049</v>
+        <v>0.438563259343141</v>
       </c>
       <c r="L12">
-        <v>0.2383434360442322</v>
+        <v>0.2235490479387892</v>
       </c>
       <c r="M12">
-        <v>0.3360080781191499</v>
+        <v>0.1760125070448737</v>
       </c>
       <c r="N12">
-        <v>0.6737757287978372</v>
+        <v>1.694166138707248</v>
       </c>
       <c r="O12">
-        <v>1.65094463185352</v>
+        <v>2.95337609880616</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.540080672597384</v>
+        <v>0.6150855438329188</v>
       </c>
       <c r="C13">
-        <v>0.1475352085931547</v>
+        <v>0.1589343944559261</v>
       </c>
       <c r="D13">
-        <v>0.330832994229354</v>
+        <v>0.1158668211345457</v>
       </c>
       <c r="E13">
-        <v>0.05764901759203589</v>
+        <v>0.119315752679519</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4632858716181971</v>
+        <v>0.6907752336113475</v>
       </c>
       <c r="H13">
-        <v>0.3421397901153824</v>
+        <v>0.7871350523743388</v>
       </c>
       <c r="I13">
-        <v>0.3608267753750916</v>
+        <v>0.7908790356191666</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.388792268458872</v>
+        <v>0.4363475645641017</v>
       </c>
       <c r="L13">
-        <v>0.2372680420532731</v>
+        <v>0.2233199404371078</v>
       </c>
       <c r="M13">
-        <v>0.3342235456997713</v>
+        <v>0.1755338692105255</v>
       </c>
       <c r="N13">
-        <v>0.6758415913898226</v>
+        <v>1.695054279136703</v>
       </c>
       <c r="O13">
-        <v>1.647776753348239</v>
+        <v>2.953623024618963</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.512877670622629</v>
+        <v>0.6072954088469658</v>
       </c>
       <c r="C14">
-        <v>0.1464497084512715</v>
+        <v>0.1585722421947295</v>
       </c>
       <c r="D14">
-        <v>0.3248272535833792</v>
+        <v>0.1142094232816504</v>
       </c>
       <c r="E14">
-        <v>0.05737697237695194</v>
+        <v>0.1193549022252913</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4593245443188181</v>
+        <v>0.6906534977606213</v>
       </c>
       <c r="H14">
-        <v>0.3412917277480858</v>
+        <v>0.7876806971749204</v>
       </c>
       <c r="I14">
-        <v>0.3601554150556119</v>
+        <v>0.7915883767620784</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.364699583649042</v>
+        <v>0.4291207660157568</v>
       </c>
       <c r="L14">
-        <v>0.2337678185245977</v>
+        <v>0.2225752419836056</v>
       </c>
       <c r="M14">
-        <v>0.3284088341460105</v>
+        <v>0.1739742266546074</v>
       </c>
       <c r="N14">
-        <v>0.6826098043325759</v>
+        <v>1.697964027047969</v>
       </c>
       <c r="O14">
-        <v>1.637541100599066</v>
+        <v>2.954464654413158</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.496226117036798</v>
+        <v>0.6025254044128872</v>
       </c>
       <c r="C15">
-        <v>0.1457850298623455</v>
+        <v>0.1583501885794476</v>
       </c>
       <c r="D15">
-        <v>0.3211540692862371</v>
+        <v>0.1131948480266942</v>
       </c>
       <c r="E15">
-        <v>0.05721198811363593</v>
+        <v>0.1193797361642286</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4569201493153372</v>
+        <v>0.6905864709790137</v>
       </c>
       <c r="H15">
-        <v>0.3407847626668001</v>
+        <v>0.7880207109461423</v>
       </c>
       <c r="I15">
-        <v>0.3597603450604971</v>
+        <v>0.792029684657038</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.349949089346893</v>
+        <v>0.4246934336765378</v>
       </c>
       <c r="L15">
-        <v>0.2316290498778244</v>
+        <v>0.2221209928621874</v>
       </c>
       <c r="M15">
-        <v>0.3248509637387897</v>
+        <v>0.1730199016340066</v>
       </c>
       <c r="N15">
-        <v>0.6867792064639762</v>
+        <v>1.699756573670341</v>
       </c>
       <c r="O15">
-        <v>1.631344173905006</v>
+        <v>2.955008113561775</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.400962961255999</v>
+        <v>0.5752166702137345</v>
       </c>
       <c r="C16">
-        <v>0.1419790371767249</v>
+        <v>0.1570742595805186</v>
       </c>
       <c r="D16">
-        <v>0.3001852368666391</v>
+        <v>0.1073904076358048</v>
       </c>
       <c r="E16">
-        <v>0.0562913907178384</v>
+        <v>0.1195351495777732</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4434703225897891</v>
+        <v>0.6903179510257331</v>
       </c>
       <c r="H16">
-        <v>0.3380671687306744</v>
+        <v>0.7900580057632709</v>
       </c>
       <c r="I16">
-        <v>0.3577387458392636</v>
+        <v>0.7946631473108212</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.265518709118226</v>
+        <v>0.3993117155059167</v>
       </c>
       <c r="L16">
-        <v>0.2194502041664208</v>
+        <v>0.219547061077364</v>
       </c>
       <c r="M16">
-        <v>0.3045181084502673</v>
+        <v>0.1675665000398325</v>
       </c>
       <c r="N16">
-        <v>0.7110298124723329</v>
+        <v>1.710185908271296</v>
       </c>
       <c r="O16">
-        <v>1.596919343364448</v>
+        <v>2.958550806143137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.342654916893025</v>
+        <v>0.558487609472138</v>
       </c>
       <c r="C17">
-        <v>0.1396464653158205</v>
+        <v>0.1562884773840167</v>
       </c>
       <c r="D17">
-        <v>0.2873896334393322</v>
+        <v>0.1038382553578145</v>
       </c>
       <c r="E17">
-        <v>0.05574833883828312</v>
+        <v>0.1196421965607293</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4355032001129047</v>
+        <v>0.690256377785289</v>
       </c>
       <c r="H17">
-        <v>0.3365632419967994</v>
+        <v>0.7913871347517443</v>
       </c>
       <c r="I17">
-        <v>0.3567092438421753</v>
+        <v>0.7963719819391173</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.21380291506398</v>
+        <v>0.3837319587903778</v>
       </c>
       <c r="L17">
-        <v>0.2120455154461069</v>
+        <v>0.2179941476650527</v>
       </c>
       <c r="M17">
-        <v>0.2920917400033076</v>
+        <v>0.1642349150601348</v>
       </c>
       <c r="N17">
-        <v>0.7262199342237539</v>
+        <v>1.716724030938327</v>
       </c>
       <c r="O17">
-        <v>1.576742137108056</v>
+        <v>2.961106524997575</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.309162573975669</v>
+        <v>0.5488745225713387</v>
       </c>
       <c r="C18">
-        <v>0.1383055141218037</v>
+        <v>0.1558354062427654</v>
       </c>
       <c r="D18">
-        <v>0.2800534473151544</v>
+        <v>0.1017983607497968</v>
       </c>
       <c r="E18">
-        <v>0.05544378009581585</v>
+        <v>0.1197080755233806</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4310213863654013</v>
+        <v>0.6902588785909103</v>
       </c>
       <c r="H18">
-        <v>0.3357565873397732</v>
+        <v>0.7921807881611755</v>
       </c>
       <c r="I18">
-        <v>0.3561923542220846</v>
+        <v>0.7973891576088725</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.184083255076501</v>
+        <v>0.3747678021872787</v>
       </c>
       <c r="L18">
-        <v>0.207810023117716</v>
+        <v>0.2171105749022075</v>
       </c>
       <c r="M18">
-        <v>0.2849607275009163</v>
+        <v>0.1623238291859508</v>
       </c>
       <c r="N18">
-        <v>0.7350697269713429</v>
+        <v>1.720536056334277</v>
       </c>
       <c r="O18">
-        <v>1.565471485579593</v>
+        <v>2.962717101376995</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.297829992349932</v>
+        <v>0.5456212676682242</v>
       </c>
       <c r="C19">
-        <v>0.1378515939556593</v>
+        <v>0.155681814214816</v>
       </c>
       <c r="D19">
-        <v>0.2775734370418945</v>
+        <v>0.1011082404152717</v>
       </c>
       <c r="E19">
-        <v>0.0553419824226058</v>
+        <v>0.1197311215905899</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4295208697672024</v>
+        <v>0.6902662381015006</v>
       </c>
       <c r="H19">
-        <v>0.3354933415945851</v>
+        <v>0.7924545186003087</v>
       </c>
       <c r="I19">
-        <v>0.3560300672829797</v>
+        <v>0.7977394481747915</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.174024829316664</v>
+        <v>0.3717321783295802</v>
       </c>
       <c r="L19">
-        <v>0.2063798995313562</v>
+        <v>0.2168130674353108</v>
       </c>
       <c r="M19">
-        <v>0.2825489940815729</v>
+        <v>0.1616776577987906</v>
       </c>
       <c r="N19">
-        <v>0.7380852856547002</v>
+        <v>1.721835582447444</v>
       </c>
       <c r="O19">
-        <v>1.561711891491882</v>
+        <v>2.963286568432522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.348857174020566</v>
+        <v>0.5602675173104217</v>
       </c>
       <c r="C20">
-        <v>0.1398946975041753</v>
+        <v>0.1563722402913044</v>
       </c>
       <c r="D20">
-        <v>0.2887492807290215</v>
+        <v>0.1042160562751349</v>
       </c>
       <c r="E20">
-        <v>0.05580533723119707</v>
+        <v>0.1196303554732054</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4363408140677194</v>
+        <v>0.6902590083428635</v>
       </c>
       <c r="H20">
-        <v>0.3367172611163198</v>
+        <v>0.7912426279269624</v>
       </c>
       <c r="I20">
-        <v>0.3568109994973661</v>
+        <v>0.7961865240811079</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.219305395844259</v>
+        <v>0.3853907745338176</v>
       </c>
       <c r="L20">
-        <v>0.2128313039969072</v>
+        <v>0.2181584627093258</v>
       </c>
       <c r="M20">
-        <v>0.2934128376488019</v>
+        <v>0.1645890356042798</v>
       </c>
       <c r="N20">
-        <v>0.7245911917629391</v>
+        <v>1.71602270959092</v>
       </c>
       <c r="O20">
-        <v>1.578855142329928</v>
+        <v>2.960819914863521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.520865521497029</v>
+        <v>0.609583211819313</v>
       </c>
       <c r="C21">
-        <v>0.1467684990384157</v>
+        <v>0.158678662002842</v>
       </c>
       <c r="D21">
-        <v>0.3265901289785234</v>
+        <v>0.1146961102708701</v>
       </c>
       <c r="E21">
-        <v>0.05745653343703339</v>
+        <v>0.1193432251780244</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4604834690405539</v>
+        <v>0.6906876832537847</v>
       </c>
       <c r="H21">
-        <v>0.341538210182577</v>
+        <v>0.7875192214617641</v>
       </c>
       <c r="I21">
-        <v>0.360349229862063</v>
+        <v>0.7913786057176644</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.371774716789218</v>
+        <v>0.4312436007807889</v>
       </c>
       <c r="L21">
-        <v>0.2347948254348609</v>
+        <v>0.2227935821220797</v>
       </c>
       <c r="M21">
-        <v>0.3301159561384992</v>
+        <v>0.1744321231082893</v>
       </c>
       <c r="N21">
-        <v>0.680616868813571</v>
+        <v>1.697107229108529</v>
       </c>
       <c r="O21">
-        <v>1.640532342193126</v>
+        <v>2.954211625752293</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.633767754356285</v>
+        <v>0.6418895724490312</v>
       </c>
       <c r="C22">
-        <v>0.1512704166985657</v>
+        <v>0.1601759963796212</v>
       </c>
       <c r="D22">
-        <v>0.3515635773013628</v>
+        <v>0.1215736233314288</v>
       </c>
       <c r="E22">
-        <v>0.05860908692864264</v>
+        <v>0.1191937965099186</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4772382014365064</v>
+        <v>0.6913053359208021</v>
       </c>
       <c r="H22">
-        <v>0.3452439225946904</v>
+        <v>0.7853450016887109</v>
       </c>
       <c r="I22">
-        <v>0.3633789250192834</v>
+        <v>0.7885414604062717</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.47172516135646</v>
+        <v>0.4611797893626601</v>
       </c>
       <c r="L22">
-        <v>0.2493801353057847</v>
+        <v>0.2259080196505892</v>
       </c>
       <c r="M22">
-        <v>0.3542712022743046</v>
+        <v>0.1809100778762343</v>
       </c>
       <c r="N22">
-        <v>0.6529306757546198</v>
+        <v>1.685203269319569</v>
       </c>
       <c r="O22">
-        <v>1.684065637255515</v>
+        <v>2.951143282723507</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.573461065313921</v>
+        <v>0.624640359382056</v>
       </c>
       <c r="C23">
-        <v>0.1488666163201771</v>
+        <v>0.1593777678074417</v>
       </c>
       <c r="D23">
-        <v>0.3382109583192516</v>
+        <v>0.1179004045881129</v>
       </c>
       <c r="E23">
-        <v>0.05798702981260107</v>
+        <v>0.1192700582515265</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4682025692557517</v>
+        <v>0.6909448101920788</v>
       </c>
       <c r="H23">
-        <v>0.3432135679481263</v>
+        <v>0.7864817294285871</v>
       </c>
       <c r="I23">
-        <v>0.3616939260772583</v>
+        <v>0.7900277965398246</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.41834836314456</v>
+        <v>0.4452053260480398</v>
       </c>
       <c r="L23">
-        <v>0.2415734660874449</v>
+        <v>0.2242380246590159</v>
       </c>
       <c r="M23">
-        <v>0.341362625965246</v>
+        <v>0.1774486073444095</v>
       </c>
       <c r="N23">
-        <v>0.6676084715865587</v>
+        <v>1.691514689478642</v>
       </c>
       <c r="O23">
-        <v>1.660523938558896</v>
+        <v>2.952666558167266</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.346053041896056</v>
+        <v>0.5594628063694245</v>
       </c>
       <c r="C24">
-        <v>0.1397824715335005</v>
+        <v>0.156334375174076</v>
       </c>
       <c r="D24">
-        <v>0.2881345217012523</v>
+        <v>0.1040452453591172</v>
       </c>
       <c r="E24">
-        <v>0.05577954447663203</v>
+        <v>0.1196356953207118</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4359618225747397</v>
+        <v>0.6902577010106228</v>
       </c>
       <c r="H24">
-        <v>0.3366474488820757</v>
+        <v>0.7913078675053384</v>
       </c>
       <c r="I24">
-        <v>0.3567647627168355</v>
+        <v>0.7962702613506956</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.216817686321576</v>
+        <v>0.3846408461572537</v>
       </c>
       <c r="L24">
-        <v>0.2124759820684403</v>
+        <v>0.2180841471594732</v>
       </c>
       <c r="M24">
-        <v>0.2928155289293386</v>
+        <v>0.16442892434317</v>
       </c>
       <c r="N24">
-        <v>0.7253271829866836</v>
+        <v>1.716339611345938</v>
       </c>
       <c r="O24">
-        <v>1.577898829007466</v>
+        <v>2.960949051276657</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.102429448396919</v>
+        <v>0.4895058588055292</v>
       </c>
       <c r="C25">
-        <v>0.1300081563875537</v>
+        <v>0.1530092300197126</v>
       </c>
       <c r="D25">
-        <v>0.2350004845860667</v>
+        <v>0.08922307740394331</v>
       </c>
       <c r="E25">
-        <v>0.05369413394503475</v>
+        <v>0.1201948919754621</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4049924466882402</v>
+        <v>0.690966202923363</v>
       </c>
       <c r="H25">
-        <v>0.3317780940284507</v>
+        <v>0.797629327906435</v>
       </c>
       <c r="I25">
-        <v>0.3543005570133317</v>
+        <v>0.8043152894240677</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.000387116792666</v>
+        <v>0.3191959860712643</v>
       </c>
       <c r="L25">
-        <v>0.1819763523608202</v>
+        <v>0.2118143603817302</v>
       </c>
       <c r="M25">
-        <v>0.2410614049524966</v>
+        <v>0.1505826381193742</v>
       </c>
       <c r="N25">
-        <v>0.791875087968291</v>
+        <v>1.745085162953505</v>
       </c>
       <c r="O25">
-        <v>1.501447056210509</v>
+        <v>2.975259036600818</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_69/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_69/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.438308214048817</v>
+        <v>0.9240299514896151</v>
       </c>
       <c r="C2">
-        <v>0.1505248139167676</v>
+        <v>0.1228143972397362</v>
       </c>
       <c r="D2">
-        <v>0.07841453281689326</v>
+        <v>0.1964636137193594</v>
       </c>
       <c r="E2">
-        <v>0.1207490994456908</v>
+        <v>0.05239237092382432</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6927346021066185</v>
+        <v>0.3850641131328629</v>
       </c>
       <c r="H2">
-        <v>0.8032467169382826</v>
+        <v>0.3299208640999751</v>
       </c>
       <c r="I2">
-        <v>0.811369122375126</v>
+        <v>0.3547047467412874</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2709177116533112</v>
+        <v>0.8414588439389377</v>
       </c>
       <c r="L2">
-        <v>0.2075162429270208</v>
+        <v>0.1601691579915112</v>
       </c>
       <c r="M2">
-        <v>0.1405601570458899</v>
+        <v>0.2033616850908757</v>
       </c>
       <c r="N2">
-        <v>1.767946521300936</v>
+        <v>0.8443309978694424</v>
       </c>
       <c r="O2">
-        <v>2.990425728613104</v>
+        <v>1.454838412297605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4038125033059146</v>
+        <v>0.8035283535004112</v>
       </c>
       <c r="C3">
-        <v>0.1488187562709413</v>
+        <v>0.1179330094700504</v>
       </c>
       <c r="D3">
-        <v>0.07115475379671921</v>
+        <v>0.1706320935697363</v>
       </c>
       <c r="E3">
-        <v>0.1212139514284001</v>
+        <v>0.05164631127387054</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6947108710974348</v>
+        <v>0.3731660875219802</v>
       </c>
       <c r="H3">
-        <v>0.8076561067087553</v>
+        <v>0.3296589989601415</v>
       </c>
       <c r="I3">
-        <v>0.8168558862899751</v>
+        <v>0.3562535564076015</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2381470848014402</v>
+        <v>0.7338411272345979</v>
       </c>
       <c r="L3">
-        <v>0.2048028731426328</v>
+        <v>0.1457431116879775</v>
       </c>
       <c r="M3">
-        <v>0.1338769148844108</v>
+        <v>0.1780110254461711</v>
       </c>
       <c r="N3">
-        <v>1.784499709032465</v>
+        <v>0.8819294825489465</v>
       </c>
       <c r="O3">
-        <v>3.003596482704211</v>
+        <v>1.428727957956923</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3827343119863826</v>
+        <v>0.7296747403148913</v>
       </c>
       <c r="C4">
-        <v>0.1477602946816319</v>
+        <v>0.114930447958983</v>
       </c>
       <c r="D4">
-        <v>0.0667294617217209</v>
+        <v>0.1548875541917027</v>
       </c>
       <c r="E4">
-        <v>0.1215435358350483</v>
+        <v>0.05125238788287412</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.696308075453274</v>
+        <v>0.3665961912972762</v>
       </c>
       <c r="H4">
-        <v>0.8106612559920237</v>
+        <v>0.3299647562712948</v>
       </c>
       <c r="I4">
-        <v>0.8205736053800408</v>
+        <v>0.3577994728480043</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2180023430719729</v>
+        <v>0.6677541156786759</v>
       </c>
       <c r="L4">
-        <v>0.2032356465113594</v>
+        <v>0.1370434504419435</v>
       </c>
       <c r="M4">
-        <v>0.1298278026805058</v>
+        <v>0.1625270153011122</v>
       </c>
       <c r="N4">
-        <v>1.795186719930117</v>
+        <v>0.9059917794645878</v>
       </c>
       <c r="O4">
-        <v>3.013111415723557</v>
+        <v>1.415222990857586</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3741711324992139</v>
+        <v>0.6996043482294567</v>
       </c>
       <c r="C5">
-        <v>0.1473262338530006</v>
+        <v>0.113705223861416</v>
       </c>
       <c r="D5">
-        <v>0.06493427166877552</v>
+        <v>0.148497343675416</v>
       </c>
       <c r="E5">
-        <v>0.1216889712668738</v>
+        <v>0.05110757279133082</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6970554900379966</v>
+        <v>0.3640957827264728</v>
       </c>
       <c r="H5">
-        <v>0.8119608508039136</v>
+        <v>0.3302031257662108</v>
       </c>
       <c r="I5">
-        <v>0.8221763884165973</v>
+        <v>0.3585742440559621</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2097877937296175</v>
+        <v>0.6408137443582262</v>
       </c>
       <c r="L5">
-        <v>0.2026219113693841</v>
+        <v>0.1335357826710748</v>
       </c>
       <c r="M5">
-        <v>0.128191573095954</v>
+        <v>0.156235384376771</v>
       </c>
       <c r="N5">
-        <v>1.799673391597229</v>
+        <v>0.9160380281595297</v>
       </c>
       <c r="O5">
-        <v>3.017348198865207</v>
+        <v>1.410330465492777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3727508332593175</v>
+        <v>0.6946124899528172</v>
       </c>
       <c r="C6">
-        <v>0.1472539941586675</v>
+        <v>0.1135016677736331</v>
       </c>
       <c r="D6">
-        <v>0.06463667542972473</v>
+        <v>0.147437717205932</v>
       </c>
       <c r="E6">
-        <v>0.1217137934020176</v>
+        <v>0.05108446328677907</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6971854296518813</v>
+        <v>0.3636910449765196</v>
       </c>
       <c r="H6">
-        <v>0.8121811784979371</v>
+        <v>0.3302494775545597</v>
       </c>
       <c r="I6">
-        <v>0.82244783314896</v>
+        <v>0.3587115028888945</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2084234621760146</v>
+        <v>0.6363395512309182</v>
       </c>
       <c r="L6">
-        <v>0.2025215087223344</v>
+        <v>0.1329555400255913</v>
       </c>
       <c r="M6">
-        <v>0.1279207167487542</v>
+        <v>0.1551917014252666</v>
       </c>
       <c r="N6">
-        <v>1.800426351318489</v>
+        <v>0.9177205957357701</v>
       </c>
       <c r="O6">
-        <v>3.018073426804548</v>
+        <v>1.409554261235911</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3826187184138803</v>
+        <v>0.7292691077560391</v>
       </c>
       <c r="C7">
-        <v>0.1477544518085594</v>
+        <v>0.1149139312526231</v>
       </c>
       <c r="D7">
-        <v>0.06670521809273566</v>
+        <v>0.1548012734127155</v>
       </c>
       <c r="E7">
-        <v>0.1215454521457371</v>
+        <v>0.0512503717845032</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6963177644053147</v>
+        <v>0.3665617641706689</v>
       </c>
       <c r="H7">
-        <v>0.8106784790949959</v>
+        <v>0.3299675149237089</v>
       </c>
       <c r="I7">
-        <v>0.8205948655553748</v>
+        <v>0.3578093416071617</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2178915800143955</v>
+        <v>0.6673908354154889</v>
       </c>
       <c r="L7">
-        <v>0.2032272684480532</v>
+        <v>0.1369959957671085</v>
       </c>
       <c r="M7">
-        <v>0.1298056798001852</v>
+        <v>0.1624420932401982</v>
       </c>
       <c r="N7">
-        <v>1.795246695738516</v>
+        <v>0.906126298585372</v>
       </c>
       <c r="O7">
-        <v>3.013167099014368</v>
+        <v>1.415154566904917</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4263932226718055</v>
+        <v>0.8824478153352686</v>
       </c>
       <c r="C8">
-        <v>0.1499388467724074</v>
+        <v>0.1211322175519598</v>
       </c>
       <c r="D8">
-        <v>0.07590469414736845</v>
+        <v>0.1875307188068405</v>
       </c>
       <c r="E8">
-        <v>0.120900227310802</v>
+        <v>0.05212155397413554</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6933363911482644</v>
+        <v>0.3808040391472929</v>
       </c>
       <c r="H8">
-        <v>0.8047053306372334</v>
+        <v>0.3297315594681365</v>
       </c>
       <c r="I8">
-        <v>0.8131886005856153</v>
+        <v>0.3551123422383249</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2596235506744335</v>
+        <v>0.8043498023269819</v>
       </c>
       <c r="L8">
-        <v>0.2065602151888157</v>
+        <v>0.1551609008436188</v>
       </c>
       <c r="M8">
-        <v>0.1382445553213358</v>
+        <v>0.1946024955634265</v>
       </c>
       <c r="N8">
-        <v>1.77354547978832</v>
+        <v>0.8570892248523942</v>
       </c>
       <c r="O8">
-        <v>2.994670779632017</v>
+        <v>1.445295936235567</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5130235166395209</v>
+        <v>1.184313021914193</v>
       </c>
       <c r="C9">
-        <v>0.154134945856697</v>
+        <v>0.1332990485842629</v>
       </c>
       <c r="D9">
-        <v>0.09419961245656339</v>
+        <v>0.25279673141047</v>
       </c>
       <c r="E9">
-        <v>0.1199844443340421</v>
+        <v>0.05435897150542246</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6905338826134937</v>
+        <v>0.4149523061147704</v>
       </c>
       <c r="H9">
-        <v>0.795350583027215</v>
+        <v>0.3331386335414095</v>
       </c>
       <c r="I9">
-        <v>0.8014298855971909</v>
+        <v>0.3547708744534575</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3412560477870841</v>
+        <v>1.073200638914557</v>
       </c>
       <c r="L9">
-        <v>0.2138770244963126</v>
+        <v>0.1921420414185775</v>
       </c>
       <c r="M9">
-        <v>0.155220178702713</v>
+        <v>0.258424059245737</v>
       </c>
       <c r="N9">
-        <v>1.735138936842188</v>
+        <v>0.7689063581613418</v>
       </c>
       <c r="O9">
-        <v>2.969719901389425</v>
+        <v>1.525617682017327</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5771267796200448</v>
+        <v>1.407622679281729</v>
       </c>
       <c r="C10">
-        <v>0.1571637718378227</v>
+        <v>0.1422453034761588</v>
       </c>
       <c r="D10">
-        <v>0.1077961665070859</v>
+        <v>0.3016485984366852</v>
       </c>
       <c r="E10">
-        <v>0.1195235180994274</v>
+        <v>0.05635442569865923</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6903301142126139</v>
+        <v>0.4443933304651324</v>
       </c>
       <c r="H10">
-        <v>0.7899102941451588</v>
+        <v>0.3382468021203948</v>
       </c>
       <c r="I10">
-        <v>0.7944728039372286</v>
+        <v>0.3578665720824752</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4010890423390947</v>
+        <v>1.271423588256454</v>
       </c>
       <c r="L10">
-        <v>0.2197255611918365</v>
+        <v>0.2202983852818647</v>
       </c>
       <c r="M10">
-        <v>0.1679473521228232</v>
+        <v>0.3059383270983176</v>
       </c>
       <c r="N10">
-        <v>1.709446837545564</v>
+        <v>0.7093119649900443</v>
       </c>
       <c r="O10">
-        <v>2.958278227006076</v>
+        <v>1.599267864270757</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6063831380325837</v>
+        <v>1.509692735258852</v>
       </c>
       <c r="C11">
-        <v>0.158529792072116</v>
+        <v>0.1463225887418744</v>
       </c>
       <c r="D11">
-        <v>0.1140153681070615</v>
+        <v>0.3241245048658783</v>
       </c>
       <c r="E11">
-        <v>0.1193596005852093</v>
+        <v>0.05734532476838794</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6906402329518357</v>
+        <v>0.4588634510571836</v>
       </c>
       <c r="H11">
-        <v>0.7877453747043717</v>
+        <v>0.3411940425324929</v>
       </c>
       <c r="I11">
-        <v>0.7916723640292176</v>
+        <v>0.3600789116320513</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4282741663051013</v>
+        <v>1.3618784309989</v>
       </c>
       <c r="L11">
-        <v>0.2224882628893852</v>
+        <v>0.2333585129529183</v>
       </c>
       <c r="M11">
-        <v>0.1737916710347633</v>
+        <v>0.327728236646017</v>
       </c>
       <c r="N11">
-        <v>1.698306209343198</v>
+        <v>0.6834057218790299</v>
       </c>
       <c r="O11">
-        <v>2.954566923280709</v>
+        <v>1.636351768848101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6174749285318057</v>
+        <v>1.54842654822707</v>
       </c>
       <c r="C12">
-        <v>0.1590453527234885</v>
+        <v>0.147868152033773</v>
       </c>
       <c r="D12">
-        <v>0.1163752861069582</v>
+        <v>0.3326767912727604</v>
       </c>
       <c r="E12">
-        <v>0.1193040886230303</v>
+        <v>0.05773309923622527</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6908155705761772</v>
+        <v>0.4645094285422999</v>
       </c>
       <c r="H12">
-        <v>0.7869700492743164</v>
+        <v>0.3424048606384815</v>
       </c>
       <c r="I12">
-        <v>0.7906642470710779</v>
+        <v>0.3610391365715273</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.438563259343141</v>
+        <v>1.396182765357963</v>
       </c>
       <c r="L12">
-        <v>0.2235490479387892</v>
+        <v>0.2383434360441754</v>
       </c>
       <c r="M12">
-        <v>0.1760125070448737</v>
+        <v>0.3360080781191428</v>
       </c>
       <c r="N12">
-        <v>1.694166138707248</v>
+        <v>0.6737757287978479</v>
       </c>
       <c r="O12">
-        <v>2.95337609880616</v>
+        <v>1.650944631853463</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6150855438329188</v>
+        <v>1.540080672597469</v>
       </c>
       <c r="C13">
-        <v>0.1589343944559261</v>
+        <v>0.147535208592906</v>
       </c>
       <c r="D13">
-        <v>0.1158668211345457</v>
+        <v>0.3308329942294534</v>
       </c>
       <c r="E13">
-        <v>0.119315752679519</v>
+        <v>0.05764901759205188</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6907752336113475</v>
+        <v>0.4632858716182398</v>
       </c>
       <c r="H13">
-        <v>0.7871350523743388</v>
+        <v>0.3421397901153824</v>
       </c>
       <c r="I13">
-        <v>0.7908790356191666</v>
+        <v>0.3608267753750845</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4363475645641017</v>
+        <v>1.388792268459071</v>
       </c>
       <c r="L13">
-        <v>0.2233199404371078</v>
+        <v>0.2372680420532873</v>
       </c>
       <c r="M13">
-        <v>0.1755338692105255</v>
+        <v>0.3342235456997713</v>
       </c>
       <c r="N13">
-        <v>1.695054279136703</v>
+        <v>0.6758415913898697</v>
       </c>
       <c r="O13">
-        <v>2.953623024618963</v>
+        <v>1.647776753348268</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6072954088469658</v>
+        <v>1.512877670622601</v>
       </c>
       <c r="C14">
-        <v>0.1585722421947295</v>
+        <v>0.1464497084516836</v>
       </c>
       <c r="D14">
-        <v>0.1142094232816504</v>
+        <v>0.3248272535833934</v>
       </c>
       <c r="E14">
-        <v>0.1193549022252913</v>
+        <v>0.05737697237695016</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6906534977606213</v>
+        <v>0.4593245443188039</v>
       </c>
       <c r="H14">
-        <v>0.7876806971749204</v>
+        <v>0.3412917277481</v>
       </c>
       <c r="I14">
-        <v>0.7915883767620784</v>
+        <v>0.3601554150556083</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4291207660157568</v>
+        <v>1.364699583649013</v>
       </c>
       <c r="L14">
-        <v>0.2225752419836056</v>
+        <v>0.2337678185245693</v>
       </c>
       <c r="M14">
-        <v>0.1739742266546074</v>
+        <v>0.3284088341460176</v>
       </c>
       <c r="N14">
-        <v>1.697964027047969</v>
+        <v>0.6826098043325679</v>
       </c>
       <c r="O14">
-        <v>2.954464654413158</v>
+        <v>1.637541100599066</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6025254044128872</v>
+        <v>1.496226117036827</v>
       </c>
       <c r="C15">
-        <v>0.1583501885794476</v>
+        <v>0.1457850298625658</v>
       </c>
       <c r="D15">
-        <v>0.1131948480266942</v>
+        <v>0.321154069286294</v>
       </c>
       <c r="E15">
-        <v>0.1193797361642286</v>
+        <v>0.05721198811363593</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6905864709790137</v>
+        <v>0.4569201493153656</v>
       </c>
       <c r="H15">
-        <v>0.7880207109461423</v>
+        <v>0.3407847626668001</v>
       </c>
       <c r="I15">
-        <v>0.792029684657038</v>
+        <v>0.3597603450604794</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4246934336765378</v>
+        <v>1.349949089346893</v>
       </c>
       <c r="L15">
-        <v>0.2221209928621874</v>
+        <v>0.2316290498778955</v>
       </c>
       <c r="M15">
-        <v>0.1730199016340066</v>
+        <v>0.3248509637387897</v>
       </c>
       <c r="N15">
-        <v>1.699756573670341</v>
+        <v>0.6867792064639699</v>
       </c>
       <c r="O15">
-        <v>2.955008113561775</v>
+        <v>1.631344173904978</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5752166702137345</v>
+        <v>1.400962961256027</v>
       </c>
       <c r="C16">
-        <v>0.1570742595805186</v>
+        <v>0.1419790371765757</v>
       </c>
       <c r="D16">
-        <v>0.1073904076358048</v>
+        <v>0.300185236866696</v>
       </c>
       <c r="E16">
-        <v>0.1195351495777732</v>
+        <v>0.05629139071784017</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6903179510257331</v>
+        <v>0.4434703225898602</v>
       </c>
       <c r="H16">
-        <v>0.7900580057632709</v>
+        <v>0.3380671687305608</v>
       </c>
       <c r="I16">
-        <v>0.7946631473108212</v>
+        <v>0.3577387458392742</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3993117155059167</v>
+        <v>1.265518709118254</v>
       </c>
       <c r="L16">
-        <v>0.219547061077364</v>
+        <v>0.2194502041665487</v>
       </c>
       <c r="M16">
-        <v>0.1675665000398325</v>
+        <v>0.3045181084502673</v>
       </c>
       <c r="N16">
-        <v>1.710185908271296</v>
+        <v>0.7110298124723253</v>
       </c>
       <c r="O16">
-        <v>2.958550806143137</v>
+        <v>1.596919343364448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.558487609472138</v>
+        <v>1.342654916893025</v>
       </c>
       <c r="C17">
-        <v>0.1562884773840167</v>
+        <v>0.1396464653155221</v>
       </c>
       <c r="D17">
-        <v>0.1038382553578145</v>
+        <v>0.2873896334395312</v>
       </c>
       <c r="E17">
-        <v>0.1196421965607293</v>
+        <v>0.05574833883828312</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.690256377785289</v>
+        <v>0.4355032001128905</v>
       </c>
       <c r="H17">
-        <v>0.7913871347517443</v>
+        <v>0.3365632419967994</v>
       </c>
       <c r="I17">
-        <v>0.7963719819391173</v>
+        <v>0.3567092438421753</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3837319587903778</v>
+        <v>1.213802915063923</v>
       </c>
       <c r="L17">
-        <v>0.2179941476650527</v>
+        <v>0.2120455154461638</v>
       </c>
       <c r="M17">
-        <v>0.1642349150601348</v>
+        <v>0.2920917400033147</v>
       </c>
       <c r="N17">
-        <v>1.716724030938327</v>
+        <v>0.7262199342237659</v>
       </c>
       <c r="O17">
-        <v>2.961106524997575</v>
+        <v>1.576742137108084</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5488745225713387</v>
+        <v>1.309162573975755</v>
       </c>
       <c r="C18">
-        <v>0.1558354062427654</v>
+        <v>0.1383055141219884</v>
       </c>
       <c r="D18">
-        <v>0.1017983607497968</v>
+        <v>0.2800534473153817</v>
       </c>
       <c r="E18">
-        <v>0.1197080755233806</v>
+        <v>0.05544378009582651</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6902588785909103</v>
+        <v>0.4310213863654013</v>
       </c>
       <c r="H18">
-        <v>0.7921807881611755</v>
+        <v>0.3357565873397732</v>
       </c>
       <c r="I18">
-        <v>0.7973891576088725</v>
+        <v>0.3561923542220811</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3747678021872787</v>
+        <v>1.184083255076416</v>
       </c>
       <c r="L18">
-        <v>0.2171105749022075</v>
+        <v>0.207810023117716</v>
       </c>
       <c r="M18">
-        <v>0.1623238291859508</v>
+        <v>0.2849607275009234</v>
       </c>
       <c r="N18">
-        <v>1.720536056334277</v>
+        <v>0.7350697269714135</v>
       </c>
       <c r="O18">
-        <v>2.962717101376995</v>
+        <v>1.565471485579536</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5456212676682242</v>
+        <v>1.297829992349932</v>
       </c>
       <c r="C19">
-        <v>0.155681814214816</v>
+        <v>0.1378515939558937</v>
       </c>
       <c r="D19">
-        <v>0.1011082404152717</v>
+        <v>0.2775734370419798</v>
       </c>
       <c r="E19">
-        <v>0.1197311215905899</v>
+        <v>0.05534198242263599</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6902662381015006</v>
+        <v>0.4295208697672166</v>
       </c>
       <c r="H19">
-        <v>0.7924545186003087</v>
+        <v>0.3354933415945851</v>
       </c>
       <c r="I19">
-        <v>0.7977394481747915</v>
+        <v>0.3560300672829726</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3717321783295802</v>
+        <v>1.174024829316835</v>
       </c>
       <c r="L19">
-        <v>0.2168130674353108</v>
+        <v>0.2063798995314698</v>
       </c>
       <c r="M19">
-        <v>0.1616776577987906</v>
+        <v>0.28254899408158</v>
       </c>
       <c r="N19">
-        <v>1.721835582447444</v>
+        <v>0.7380852856547504</v>
       </c>
       <c r="O19">
-        <v>2.963286568432522</v>
+        <v>1.561711891491882</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5602675173104217</v>
+        <v>1.348857174020594</v>
       </c>
       <c r="C20">
-        <v>0.1563722402913044</v>
+        <v>0.1398946975040047</v>
       </c>
       <c r="D20">
-        <v>0.1042160562751349</v>
+        <v>0.2887492807290073</v>
       </c>
       <c r="E20">
-        <v>0.1196303554732054</v>
+        <v>0.05580533723116687</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6902590083428635</v>
+        <v>0.4363408140677905</v>
       </c>
       <c r="H20">
-        <v>0.7912426279269624</v>
+        <v>0.3367172611163198</v>
       </c>
       <c r="I20">
-        <v>0.7961865240811079</v>
+        <v>0.3568109994973483</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3853907745338176</v>
+        <v>1.219305395844259</v>
       </c>
       <c r="L20">
-        <v>0.2181584627093258</v>
+        <v>0.2128313039968646</v>
       </c>
       <c r="M20">
-        <v>0.1645890356042798</v>
+        <v>0.2934128376488019</v>
       </c>
       <c r="N20">
-        <v>1.71602270959092</v>
+        <v>0.7245911917629488</v>
       </c>
       <c r="O20">
-        <v>2.960819914863521</v>
+        <v>1.578855142329957</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.609583211819313</v>
+        <v>1.520865521496916</v>
       </c>
       <c r="C21">
-        <v>0.158678662002842</v>
+        <v>0.1467684990383233</v>
       </c>
       <c r="D21">
-        <v>0.1146961102708701</v>
+        <v>0.326590128978637</v>
       </c>
       <c r="E21">
-        <v>0.1193432251780244</v>
+        <v>0.05745653343704582</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6906876832537847</v>
+        <v>0.4604834690405539</v>
       </c>
       <c r="H21">
-        <v>0.7875192214617641</v>
+        <v>0.341538210182577</v>
       </c>
       <c r="I21">
-        <v>0.7913786057176644</v>
+        <v>0.3603492298620523</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4312436007807889</v>
+        <v>1.371774716789162</v>
       </c>
       <c r="L21">
-        <v>0.2227935821220797</v>
+        <v>0.2347948254346477</v>
       </c>
       <c r="M21">
-        <v>0.1744321231082893</v>
+        <v>0.3301159561384921</v>
       </c>
       <c r="N21">
-        <v>1.697107229108529</v>
+        <v>0.6806168688135692</v>
       </c>
       <c r="O21">
-        <v>2.954211625752293</v>
+        <v>1.640532342193126</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6418895724490312</v>
+        <v>1.633767754356427</v>
       </c>
       <c r="C22">
-        <v>0.1601759963796212</v>
+        <v>0.151270416698658</v>
       </c>
       <c r="D22">
-        <v>0.1215736233314288</v>
+        <v>0.3515635773013486</v>
       </c>
       <c r="E22">
-        <v>0.1191937965099186</v>
+        <v>0.05860908692863909</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6913053359208021</v>
+        <v>0.477238201436478</v>
       </c>
       <c r="H22">
-        <v>0.7853450016887109</v>
+        <v>0.3452439225948041</v>
       </c>
       <c r="I22">
-        <v>0.7885414604062717</v>
+        <v>0.3633789250192763</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4611797893626601</v>
+        <v>1.471725161356517</v>
       </c>
       <c r="L22">
-        <v>0.2259080196505892</v>
+        <v>0.2493801353058416</v>
       </c>
       <c r="M22">
-        <v>0.1809100778762343</v>
+        <v>0.3542712022743046</v>
       </c>
       <c r="N22">
-        <v>1.685203269319569</v>
+        <v>0.6529306757545514</v>
       </c>
       <c r="O22">
-        <v>2.951143282723507</v>
+        <v>1.684065637255543</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.624640359382056</v>
+        <v>1.573461065314063</v>
       </c>
       <c r="C23">
-        <v>0.1593777678074417</v>
+        <v>0.1488666163207668</v>
       </c>
       <c r="D23">
-        <v>0.1179004045881129</v>
+        <v>0.3382109583193227</v>
       </c>
       <c r="E23">
-        <v>0.1192700582515265</v>
+        <v>0.0579870298125833</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6909448101920788</v>
+        <v>0.4682025692557801</v>
       </c>
       <c r="H23">
-        <v>0.7864817294285871</v>
+        <v>0.3432135679481263</v>
       </c>
       <c r="I23">
-        <v>0.7900277965398246</v>
+        <v>0.3616939260772796</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4452053260480398</v>
+        <v>1.418348363144645</v>
       </c>
       <c r="L23">
-        <v>0.2242380246590159</v>
+        <v>0.2415734660874449</v>
       </c>
       <c r="M23">
-        <v>0.1774486073444095</v>
+        <v>0.3413626259652602</v>
       </c>
       <c r="N23">
-        <v>1.691514689478642</v>
+        <v>0.667608471586556</v>
       </c>
       <c r="O23">
-        <v>2.952666558167266</v>
+        <v>1.660523938558981</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5594628063694245</v>
+        <v>1.346053041895942</v>
       </c>
       <c r="C24">
-        <v>0.156334375174076</v>
+        <v>0.1397824715335005</v>
       </c>
       <c r="D24">
-        <v>0.1040452453591172</v>
+        <v>0.2881345217014228</v>
       </c>
       <c r="E24">
-        <v>0.1196356953207118</v>
+        <v>0.05577954447663203</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6902577010106228</v>
+        <v>0.4359618225747823</v>
       </c>
       <c r="H24">
-        <v>0.7913078675053384</v>
+        <v>0.3366474488819762</v>
       </c>
       <c r="I24">
-        <v>0.7962702613506956</v>
+        <v>0.3567647627168498</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3846408461572537</v>
+        <v>1.216817686321576</v>
       </c>
       <c r="L24">
-        <v>0.2180841471594732</v>
+        <v>0.2124759820684829</v>
       </c>
       <c r="M24">
-        <v>0.16442892434317</v>
+        <v>0.2928155289293386</v>
       </c>
       <c r="N24">
-        <v>1.716339611345938</v>
+        <v>0.7253271829867405</v>
       </c>
       <c r="O24">
-        <v>2.960949051276657</v>
+        <v>1.577898829007466</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4895058588055292</v>
+        <v>1.102429448396805</v>
       </c>
       <c r="C25">
-        <v>0.1530092300197126</v>
+        <v>0.1300081563877669</v>
       </c>
       <c r="D25">
-        <v>0.08922307740394331</v>
+        <v>0.2350004845857114</v>
       </c>
       <c r="E25">
-        <v>0.1201948919754621</v>
+        <v>0.05369413394503297</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.690966202923363</v>
+        <v>0.4049924466882402</v>
       </c>
       <c r="H25">
-        <v>0.797629327906435</v>
+        <v>0.3317780940284365</v>
       </c>
       <c r="I25">
-        <v>0.8043152894240677</v>
+        <v>0.3543005570133317</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3191959860712643</v>
+        <v>1.000387116792666</v>
       </c>
       <c r="L25">
-        <v>0.2118143603817302</v>
+        <v>0.181976352360806</v>
       </c>
       <c r="M25">
-        <v>0.1505826381193742</v>
+        <v>0.2410614049525037</v>
       </c>
       <c r="N25">
-        <v>1.745085162953505</v>
+        <v>0.7918750879682803</v>
       </c>
       <c r="O25">
-        <v>2.975259036600818</v>
+        <v>1.501447056210509</v>
       </c>
     </row>
   </sheetData>
